--- a/xls/UPCE-Fakulta filozofická_Local.xlsx
+++ b/xls/UPCE-Fakulta filozofická_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="131">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,27 +73,24 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jsc</t>
   </si>
   <si>
     <t>Jimp</t>
   </si>
   <si>
-    <t>Lenderová, Milena, 6639909</t>
-  </si>
-  <si>
-    <t>Vorel, Petr, 3698025</t>
-  </si>
-  <si>
-    <t>Maur, Eduard, 4449312</t>
-  </si>
-  <si>
-    <t>Kubeš, Jiří, 5975360</t>
-  </si>
-  <si>
     <t>Hejduk, Tomáš, 8625417</t>
   </si>
   <si>
+    <t>Huschová, Petra, 4904745</t>
+  </si>
+  <si>
     <t>Smažilová, Petra, 5751608</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Bubíková, Šárka, 5183413</t>
   </si>
   <si>
-    <t>Nekvapil Jirásková, Šárka, 3629899</t>
-  </si>
-  <si>
     <t>Vít, Ladislav, 5257298</t>
   </si>
   <si>
@@ -130,46 +124,28 @@
     <t>Škabrada, Jiří, 1329065</t>
   </si>
   <si>
-    <t>Marek, Pavel, 2769905</t>
-  </si>
-  <si>
     <t>Lisý, Štěpán, 2411814</t>
   </si>
   <si>
     <t>Pacovská, Kamila, 5634695</t>
   </si>
   <si>
+    <t>Pató, Marta, 4742710</t>
+  </si>
+  <si>
     <t>Prázný, Aleš, 2045478</t>
   </si>
   <si>
     <t>Svitáková, Šárka, 6397506</t>
   </si>
   <si>
-    <t>Bakeš, Martin, 6178464</t>
-  </si>
-  <si>
     <t>Hyánková, Tereza, 4504623</t>
   </si>
   <si>
-    <t>Touhy a slasti těla. Poznámky k sexualitě 19. věku a jejím pramenům</t>
-  </si>
-  <si>
-    <t>Směnné kursy jako nástroj mocenské politiky v Římsko-německé říši počátkem čtyřicátých let 16. století</t>
-  </si>
-  <si>
-    <t>Soziale Aspekte der demographischen Entwicklung</t>
-  </si>
-  <si>
-    <t>Volba a korunovace Karla VI. římským císařem v roce 1711</t>
-  </si>
-  <si>
-    <t>Jan Marek z Clary a Aldringenu jako vyslanec Leopolda I. u saského kurfiřtského dvora na konci 17. století</t>
-  </si>
-  <si>
     <t>Realismus Bernarda Williamse</t>
   </si>
   <si>
-    <t>Sociální aspekty demografického vývoje</t>
+    <t>Exploring modal verbs conveying possibility in academic discourse</t>
   </si>
   <si>
     <t>Women Playwrights in the Suffrage Era: Writing from the Perspective of the New Woman</t>
@@ -193,12 +169,6 @@
     <t>Realismus Ladislava Hejdánka</t>
   </si>
   <si>
-    <t>Protoindustrializace a možnosti studia populačního vývoje v oblasti severovýchodních Čech</t>
-  </si>
-  <si>
-    <t>Česká historiografie ve světle sjezdů historiků v letech 1993-2011 / Die tschechische Historiographie im Lichte der Historikertage in den Jahren 1993-2011</t>
-  </si>
-  <si>
     <t>Feet on the Ground: W.H. Auden's Late Landscapes</t>
   </si>
   <si>
@@ -223,36 +193,30 @@
     <t>Nový přístup k islámu a jeho Prorokovi u křesťanských orientalistů W. M. Watta a K. Cragga</t>
   </si>
   <si>
-    <t>Španělská strana na císařském dvoře? K problematice jednoho pojmu z politických dějin</t>
-  </si>
-  <si>
     <t>Preliminary Remarks for the Comparative Study of Mysticism</t>
   </si>
   <si>
     <t>Etický význam pojmu lidství. Obrana druhismu v díle B. A. O. Williamse a C. Diamondové</t>
   </si>
   <si>
+    <t>Sándor Márai jako československý autor?</t>
+  </si>
+  <si>
     <t>Božena Komárková. Na cestě k osvobození člověka</t>
   </si>
   <si>
     <t>In the Cobweb of Horror: Poe's and Lovecraft's Characters Bound with the Fibres of Dread</t>
   </si>
   <si>
-    <t>Diplomatická mise jako nejistá investice. Antonín Jan z Nostic u stockholmského královského dvora (1685-1690)</t>
-  </si>
-  <si>
-    <t>Státoprávní vyčlenění českých zemí ze Svaté říše římské (Důsledky říšské reformy Maxmiliána I.)</t>
-  </si>
-  <si>
     <t>Pierre Bourdieu a Kabylové: idealizace, identifikace, instrumentalizace?</t>
   </si>
   <si>
-    <t>0862-6111</t>
-  </si>
-  <si>
     <t>0015-1831</t>
   </si>
   <si>
+    <t>1802-9930</t>
+  </si>
+  <si>
     <t>1803-6058</t>
   </si>
   <si>
@@ -271,15 +235,18 @@
     <t>1212-8570</t>
   </si>
   <si>
+    <t>0009-0468</t>
+  </si>
+  <si>
     <t>0038-0288</t>
   </si>
   <si>
-    <t>Český časopis historický</t>
-  </si>
-  <si>
     <t>Filosofický časopis</t>
   </si>
   <si>
+    <t>Discourse and Interaction.</t>
+  </si>
+  <si>
     <t>American and British Studies Annual</t>
   </si>
   <si>
@@ -298,13 +265,19 @@
     <t>Studia theologica</t>
   </si>
   <si>
+    <t>Česká literatura</t>
+  </si>
+  <si>
     <t>Sociologický časopis/Czech Sociological Review</t>
   </si>
   <si>
+    <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
+  </si>
+  <si>
     <t>1 - SPOLEČENSKÉ, HUMANITNÍ a UMĚLECKÉ VĚDY -  SHVa</t>
   </si>
   <si>
-    <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
+    <t>http://katedry.ped.muni.cz/anglictina/wp-content/uploads/sites/2/2016/02/discourse-and-interaction-8-2-2015-huschova-35-47.pdf</t>
   </si>
   <si>
     <t>http://www.orbisscholae.cz/archiv/2014/2014_3_01.pdf</t>
@@ -313,25 +286,10 @@
     <t>http://sreview.soc.cas.cz/uploads/fa074693a157e6aba8bee84712a65933e478be37_13-1-15Hyankova13.indd.pdf</t>
   </si>
   <si>
-    <t>00e2ece586f786731812f62336ca431bb03e5eb2</t>
-  </si>
-  <si>
-    <t>0b5f822c73d65e6b9e298401c5cc84c5feadce26</t>
-  </si>
-  <si>
-    <t>13219e190123d1c90c3bbff442490f63d13c5b36</t>
-  </si>
-  <si>
-    <t>1463f2bce3a40ce31b8d72ceb27c502c3904e30a</t>
-  </si>
-  <si>
-    <t>1770091ae7d5cab620f328a066267df310abc09d</t>
-  </si>
-  <si>
     <t>2451efc5ac44f2600151ba73a0fdbb311502078c</t>
   </si>
   <si>
-    <t>315ecdec8cb415ceac8dee9fb81f75d44382ee6a</t>
+    <t>2980935108433f09523e304fea6c7a600e2dcdc2</t>
   </si>
   <si>
     <t>34d46b81afc831a56ec7582fb13f4a3d2b695347</t>
@@ -355,12 +313,6 @@
     <t>65aa033f118ef133f5ba59536dc39b696872882b</t>
   </si>
   <si>
-    <t>78c1871cb55307bd25dcc8cebb2dab0c563b9072</t>
-  </si>
-  <si>
-    <t>8a846f2fc45537b1e83d5c5ad7df45b0c5dc740f</t>
-  </si>
-  <si>
     <t>90036fe1cb28586d78f5f85b0d36222fb7d711e6</t>
   </si>
   <si>
@@ -385,27 +337,21 @@
     <t>b0f4c3c453e7e3f40062b79082734c05a53648fd</t>
   </si>
   <si>
-    <t>b6aac21bfe58046a4ab6cd667067f9abf6416583</t>
-  </si>
-  <si>
     <t>b6b0984f5b8a8aa8045569566b387ddac92e5aed</t>
   </si>
   <si>
     <t>bcafdb6d8a8807824467020c05785d69151fb6d3</t>
   </si>
   <si>
+    <t>c3449a8494c4ada7544ec1ad820f5594148a319c</t>
+  </si>
+  <si>
     <t>c64bf54735edc5c844c607a02e1c0f8159aa52c6</t>
   </si>
   <si>
     <t>c71d4de8190e0fae99365c8f3239b1153320554c</t>
   </si>
   <si>
-    <t>d19802c38843e2579f674bd3ff481a9854876c4e</t>
-  </si>
-  <si>
-    <t>dac23f65b7364e6beaf220a4e5f4f9cb30f8b89d</t>
-  </si>
-  <si>
     <t>ed83211f0134ffc9f2edd2955ee6583d3ed6d598</t>
   </si>
   <si>
@@ -418,12 +364,12 @@
     <t>Fakulta filozofická</t>
   </si>
   <si>
-    <t>AB - Dějiny</t>
-  </si>
-  <si>
     <t>AA - Filosofie a náboženství</t>
   </si>
   <si>
+    <t>AI - Jazykověda</t>
+  </si>
+  <si>
     <t>AJ - Písemnictví, mas-media, audiovize</t>
   </si>
   <si>
@@ -440,6 +386,27 @@
   </si>
   <si>
     <t>UPCE-Univerzita Pardubice</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
   </si>
 </sst>
 </file>
@@ -810,7 +777,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +788,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,1809 +846,1453 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10.611</v>
+        <v>13.296</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <v>216275</v>
       </c>
       <c r="Q2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R2" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21.046854</v>
+        <v>11.568929</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
-        <v>95</v>
+      <c r="J3" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M3" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="P3">
         <v>216275</v>
       </c>
       <c r="Q3" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R3" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>10.611</v>
+        <v>25.172001</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
         <v>77</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>86</v>
       </c>
-      <c r="I4" t="s">
-        <v>95</v>
-      </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="P4">
         <v>216275</v>
       </c>
       <c r="Q4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R4" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>21.507</v>
+        <v>9.512683900000001</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M5" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="P5">
         <v>216275</v>
       </c>
       <c r="Q5" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R5" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T5" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>20.516413</v>
+        <v>21.134001</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O6" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P6">
         <v>216275</v>
       </c>
       <c r="Q6" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>13.296</v>
+        <v>23.146999</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="P7">
         <v>216275</v>
       </c>
       <c r="Q7" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T7" t="s">
+        <v>127</v>
+      </c>
+      <c r="U7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>10.611</v>
+        <v>10.373</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
         <v>77</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>86</v>
       </c>
-      <c r="I8" t="s">
-        <v>95</v>
-      </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="P8">
         <v>216275</v>
       </c>
       <c r="Q8" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R8" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T8" t="s">
+        <v>126</v>
+      </c>
+      <c r="U8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>25.172001</v>
+        <v>11.017161</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M9" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N9" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="P9">
         <v>216275</v>
       </c>
       <c r="Q9" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R9" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T9" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>9.512683900000001</v>
+        <v>63.418999</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N10" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="P10">
         <v>216275</v>
       </c>
       <c r="Q10" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R10" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S10" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T10" t="s">
+        <v>124</v>
+      </c>
+      <c r="U10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>21.134001</v>
+        <v>11.017161</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="P11">
         <v>216275</v>
       </c>
       <c r="Q11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R11" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>23.146999</v>
+        <v>9.512683900000001</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M12" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="P12">
         <v>216275</v>
       </c>
       <c r="Q12" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T12" t="s">
+        <v>124</v>
+      </c>
+      <c r="U12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>10.373</v>
+        <v>11.547209</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="P13">
         <v>216275</v>
       </c>
       <c r="Q13" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R13" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T13" t="s">
+        <v>128</v>
+      </c>
+      <c r="U13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>11.017161</v>
+        <v>5.2810001</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M14" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P14">
         <v>216275</v>
       </c>
       <c r="Q14" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R14" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>2012</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>63.418999</v>
+        <v>15.8</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H15" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M15" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N15" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="P15">
         <v>216275</v>
       </c>
       <c r="Q15" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R15" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T15" t="s">
+        <v>124</v>
+      </c>
+      <c r="U15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>20.516413</v>
+        <v>9.512683900000001</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" t="s">
         <v>113</v>
       </c>
-      <c r="L16" t="s">
-        <v>131</v>
-      </c>
       <c r="M16" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N16" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O16" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="P16">
         <v>216275</v>
       </c>
       <c r="Q16" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R16" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T16" t="s">
+        <v>124</v>
+      </c>
+      <c r="U16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D17">
-        <v>10.611</v>
+        <v>5.1269379</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="s">
         <v>114</v>
       </c>
-      <c r="L17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" t="s">
-        <v>132</v>
-      </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="P17">
         <v>216275</v>
       </c>
       <c r="Q17" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R17" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T17" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>11.017161</v>
+        <v>32.066002</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" t="s">
+        <v>113</v>
+      </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" t="s">
         <v>115</v>
       </c>
-      <c r="L18" t="s">
-        <v>131</v>
-      </c>
-      <c r="M18" t="s">
-        <v>132</v>
-      </c>
-      <c r="N18" t="s">
-        <v>133</v>
-      </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="P18">
         <v>216275</v>
       </c>
       <c r="Q18" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R18" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>9.512683900000001</v>
+        <v>21.405001</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" t="s">
         <v>78</v>
       </c>
-      <c r="H19" t="s">
-        <v>87</v>
-      </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19" t="s">
+        <v>114</v>
+      </c>
+      <c r="N19" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" t="s">
         <v>116</v>
-      </c>
-      <c r="L19" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" t="s">
-        <v>133</v>
-      </c>
-      <c r="O19" t="s">
-        <v>135</v>
       </c>
       <c r="P19">
         <v>216275</v>
       </c>
       <c r="Q19" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R19" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T19" t="s">
+        <v>124</v>
+      </c>
+      <c r="U19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>11.547209</v>
+        <v>9.512683900000001</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M20" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N20" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O20" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="P20">
         <v>216275</v>
       </c>
       <c r="Q20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R20" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T20" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>2012</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>5.2810001</v>
+        <v>13.172</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>113</v>
+      </c>
+      <c r="M21" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
         <v>118</v>
-      </c>
-      <c r="L21" t="s">
-        <v>131</v>
-      </c>
-      <c r="M21" t="s">
-        <v>132</v>
-      </c>
-      <c r="N21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O21" t="s">
-        <v>135</v>
       </c>
       <c r="P21">
         <v>216275</v>
       </c>
       <c r="Q21" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R21" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T21" t="s">
+        <v>126</v>
+      </c>
+      <c r="U21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>2012</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>15.8</v>
+        <v>63.418999</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" t="s">
-        <v>83</v>
-      </c>
       <c r="H22" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O22" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="P22">
         <v>216275</v>
       </c>
       <c r="Q22" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R22" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S22" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T22" t="s">
+        <v>124</v>
+      </c>
+      <c r="U22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>9.512683900000001</v>
+        <v>25.172001</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M23" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O23" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="P23">
         <v>216275</v>
       </c>
       <c r="Q23" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R23" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>123</v>
+      </c>
+      <c r="T23" t="s">
+        <v>126</v>
+      </c>
+      <c r="U23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>5.1269379</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>96</v>
+        <v>85</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M24" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="N24" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="O24" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="P24">
         <v>216275</v>
       </c>
       <c r="Q24" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="R24" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="S24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25">
-        <v>2013</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>32.066002</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
-      <c r="I25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" t="s">
-        <v>122</v>
-      </c>
-      <c r="L25" t="s">
-        <v>131</v>
-      </c>
-      <c r="M25" t="s">
-        <v>132</v>
-      </c>
-      <c r="N25" t="s">
-        <v>133</v>
-      </c>
-      <c r="O25" t="s">
-        <v>135</v>
-      </c>
-      <c r="P25">
-        <v>216275</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>139</v>
-      </c>
-      <c r="R25" t="s">
-        <v>140</v>
-      </c>
-      <c r="S25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26">
-        <v>2015</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>20.516413</v>
-      </c>
-      <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26" t="s">
-        <v>95</v>
-      </c>
-      <c r="K26" t="s">
         <v>123</v>
       </c>
-      <c r="L26" t="s">
-        <v>131</v>
-      </c>
-      <c r="M26" t="s">
-        <v>132</v>
-      </c>
-      <c r="N26" t="s">
-        <v>133</v>
-      </c>
-      <c r="O26" t="s">
-        <v>134</v>
-      </c>
-      <c r="P26">
-        <v>216275</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>139</v>
-      </c>
-      <c r="R26" t="s">
-        <v>140</v>
-      </c>
-      <c r="S26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="A27">
-        <v>2012</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>21.405001</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" t="s">
-        <v>124</v>
-      </c>
-      <c r="L27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M27" t="s">
-        <v>132</v>
-      </c>
-      <c r="N27" t="s">
-        <v>133</v>
-      </c>
-      <c r="O27" t="s">
-        <v>135</v>
-      </c>
-      <c r="P27">
-        <v>216275</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>139</v>
-      </c>
-      <c r="R27" t="s">
-        <v>140</v>
-      </c>
-      <c r="S27" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28">
-        <v>2014</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>9.512683900000001</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" t="s">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" t="s">
-        <v>125</v>
-      </c>
-      <c r="L28" t="s">
-        <v>131</v>
-      </c>
-      <c r="M28" t="s">
-        <v>132</v>
-      </c>
-      <c r="N28" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" t="s">
-        <v>135</v>
-      </c>
-      <c r="P28">
-        <v>216275</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>139</v>
-      </c>
-      <c r="R28" t="s">
-        <v>140</v>
-      </c>
-      <c r="S28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29">
-        <v>2012</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>63.418999</v>
-      </c>
-      <c r="E29" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" t="s">
-        <v>72</v>
-      </c>
-      <c r="G29" t="s">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s">
-        <v>87</v>
-      </c>
-      <c r="I29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" t="s">
-        <v>126</v>
-      </c>
-      <c r="L29" t="s">
-        <v>131</v>
-      </c>
-      <c r="M29" t="s">
-        <v>132</v>
-      </c>
-      <c r="N29" t="s">
-        <v>133</v>
-      </c>
-      <c r="O29" t="s">
-        <v>135</v>
-      </c>
-      <c r="P29">
-        <v>216275</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>139</v>
-      </c>
-      <c r="R29" t="s">
-        <v>140</v>
-      </c>
-      <c r="S29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30">
-        <v>2013</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>25.172001</v>
-      </c>
-      <c r="E30" t="s">
-        <v>42</v>
-      </c>
-      <c r="F30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" t="s">
-        <v>79</v>
-      </c>
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="T24" t="s">
         <v>127</v>
       </c>
-      <c r="L30" t="s">
-        <v>131</v>
-      </c>
-      <c r="M30" t="s">
-        <v>132</v>
-      </c>
-      <c r="N30" t="s">
-        <v>133</v>
-      </c>
-      <c r="O30" t="s">
-        <v>136</v>
-      </c>
-      <c r="P30">
-        <v>216275</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>139</v>
-      </c>
-      <c r="R30" t="s">
-        <v>140</v>
-      </c>
-      <c r="S30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31">
-        <v>2015</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>20.516413</v>
-      </c>
-      <c r="E31" t="s">
-        <v>43</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" t="s">
-        <v>95</v>
-      </c>
-      <c r="K31" t="s">
-        <v>128</v>
-      </c>
-      <c r="L31" t="s">
-        <v>131</v>
-      </c>
-      <c r="M31" t="s">
-        <v>132</v>
-      </c>
-      <c r="N31" t="s">
-        <v>133</v>
-      </c>
-      <c r="O31" t="s">
-        <v>134</v>
-      </c>
-      <c r="P31">
-        <v>216275</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>139</v>
-      </c>
-      <c r="R31" t="s">
-        <v>140</v>
-      </c>
-      <c r="S31" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32">
-        <v>2013</v>
-      </c>
-      <c r="B32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>21.507</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I32" t="s">
-        <v>95</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="U24" t="s">
         <v>129</v>
-      </c>
-      <c r="L32" t="s">
-        <v>131</v>
-      </c>
-      <c r="M32" t="s">
-        <v>132</v>
-      </c>
-      <c r="N32" t="s">
-        <v>133</v>
-      </c>
-      <c r="O32" t="s">
-        <v>134</v>
-      </c>
-      <c r="P32">
-        <v>216275</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>139</v>
-      </c>
-      <c r="R32" t="s">
-        <v>140</v>
-      </c>
-      <c r="S32" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33">
-        <v>2013</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K33" t="s">
-        <v>130</v>
-      </c>
-      <c r="L33" t="s">
-        <v>131</v>
-      </c>
-      <c r="M33" t="s">
-        <v>132</v>
-      </c>
-      <c r="N33" t="s">
-        <v>133</v>
-      </c>
-      <c r="O33" t="s">
-        <v>137</v>
-      </c>
-      <c r="P33">
-        <v>216275</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>139</v>
-      </c>
-      <c r="R33" t="s">
-        <v>140</v>
-      </c>
-      <c r="S33" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J20" r:id="rId1"/>
-    <hyperlink ref="J33" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId1"/>
+    <hyperlink ref="J13" r:id="rId2"/>
+    <hyperlink ref="J24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
